--- a/No_Supervisado/tweets_representativos_por_topico_snippet.xlsx
+++ b/No_Supervisado/tweets_representativos_por_topico_snippet.xlsx
@@ -1,111 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Topic_Num</t>
-  </si>
-  <si>
-    <t>Topic_Perc_Contrib</t>
-  </si>
-  <si>
-    <t>Keywords</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>venezolano, no, colombia, país,   , colombiano, tener, hacer, si, venir</t>
-  </si>
-  <si>
-    <t>venecos, mierda, hijueputa,   , hp, puta, hijo, plaga, maldito, pa</t>
-  </si>
-  <si>
-    <t>trata, joven, ojala, campaña, rápido, excelente, real, plan, valer, minuto</t>
-  </si>
-  <si>
-    <t>paro, periodista, coronavirus, realizar, presencia, denunciar, acoger, dictador, muestra, permiso</t>
-  </si>
-  <si>
-    <t>🏻‍, dolar, ecuador, mañana, ignorante, metido, mamar, perú, cansar, dolor</t>
-  </si>
-  <si>
-    <t>veneca, hptas, venecas, negro, re, parce, verga, peste, man, mitad</t>
-  </si>
-  <si>
-    <t>veneco, malparido, hpta, puro,   , chiste, muerto, :(, infiltrado, fastidiar</t>
-  </si>
-  <si>
-    <t>pedir, plata, vender, limosna, semáforo, vendedor, subir, cobarde, niño, vayan</t>
-  </si>
-  <si>
-    <t>venezolano, no, si, tener, decir, hacer, robar,   , ver, ni</t>
-  </si>
-  <si>
-    <t>Sin ese 4% que los venezolanos aportan estaríamos mucho mejor, o no?; la delincuencia también aumenta no solo porque algunos de ellos cometen delitos sino porque otro gran porcentaje viene a quitarle oportunidad laboral a colombianos, y muchos de esos colombianos delinquen para poder subsistir; entonces no vengan a decir que la migración no..</t>
-  </si>
-  <si>
-    <t>@elviejomiguelc Tremendo coñazo.. Disculpe me venezolano jajaja jajaja jajaja jajaja jajaja jajaja jajaja jajaja jajaja jajaja jajaja jajaja jajaja</t>
-  </si>
-  <si>
-    <t>@CaracolRadio Veneco,esto es lo que heredamos de la diáspora.Una criminalidad importada,desmedida y cruel.El satrapa emulo lo del puerto de Mariel (Cuba).</t>
-  </si>
-  <si>
-    <t>HIDRUITANGO..GRAN FRACASO DE LA INFENIERIA COLOMBIANA..DE LA POLITICA ESTATAL ENERGETICA..DEL ERROR DE LA PRESIDENCIA PARA ABAJO..DE LA CLASE POLITICA..DEL MINISTERIO DEL MEDIO AMBIENTE ..DEL SISTEMA DE CONTROL..QUE HORROR.. Y COLOMBIA EN EL MUNDIAL SUB20..Y VENEZOLANIZADA..</t>
-  </si>
-  <si>
-    <t>Caracas FC avanzó a la tercera fase de la Copa Libertadores de América 2019 al igualar sin goles con Delfín de Ecuador en el partido revancha de la segunda ronda, disputado este miércoles en el estadio Olímpico de la capital venezolana. Los �Rojos del Ávila' enfrentarán ahora a Melgar de Perú, que en la jornada dejó en el camino a la Universidad..</t>
-  </si>
-  <si>
-    <t>La Izmierda Latinoamérica se desvive tratando de pintar el cuadro al revés está claro que la peste @petrogustavo es la reencarnación de la Bestia Veneca miles de pruebas lo avalan. Para @MJDuzan @JMVivancoHRW @piedadcordoba @FarcPartido la bestia es @AlvaroUribeVel INCOHERENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿A QUÉ EDAD GOZASTE TU PRIMER ORGAS__MO? LOS VENECOS LO EXPERIMENTAN CUANDO ALMUERZAN JAJAJAAJAJAJA ATT DRA LABIOS, LA AZAFATA CON EL CHIQUITO MÁS LIMPIO DE LOCOMBIA — Racism still exist in 2019? 😳 </t>
-  </si>
-  <si>
-    <t>@DanielSamperO Repugnante? Lo invito a Bucaramanga para que vea la gravedad del asunto. Cantidades de niños y embarazadas pidiendo plata en los semáforos, cantidades de venezolanos limpiando vidrios.. es aterrador el panorama y súmele los coombianas que piden plata y embarazadas Terrible</t>
-  </si>
-  <si>
-    <t>..licras y tops muy escotados y tiene por mucho unos 35. Una vez le pregunte el nombre pero no me acuerdo, creo que es Isabel, no sé. En todo caso me parece un lugar no indicado para llevar a los niños, pero debe ser que por lo que hay mucho venezolano en el sector y les queda fácil hacer esto ahí mismo, en fin es solo un pensar y/o opinión. Parece ser..</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,181 +420,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Topic_Num</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Topic_Perc_Contrib</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Keywords</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9753999710083008</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pais, decir, hacer, robar, venir, ver, ahora, gente, querer, aca</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>..estar bien calientes las calles y no por la lujuria, los colegas que quieran puetar esta semana tomar las máximas precauciones. Como dije, es en toda la ciudad, hace un par de años solía ir a buscar subversivas a la mariposa que siempre ha sido un sector X pero se podía ir con las debidas precauciones, hoy imposible, hay bandas de venecos y ñeros..</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9678000211715698</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>malparido, mierda, hijueputa, veneca, puta, hptas, hijo, maldito, hp, hps</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>@nunezsabal @EnriquePenalosa Venezolano setenta catre doble triple tetra penta hexa septa octa nona deca décimo vigésimo trigésimo cuadragésimo quincuagésimo sexagésimo septuagesimo octogesimo nonagesimo centésimo hijo de las diez mil re putas 🙄</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9538999795913696</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>expulsar, gustar, venecas, parir, uds, recursos, sonar, rappi, paisa, hospital</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los Melódicos es una orquesta venezolana nacida el 15 de julio de 1958 por Renato Capriles, director musical, con apoyo del director Billo Frómetaen respuesta a la separación de la orquesta Billo's Happy Boys en 1938. @El_GranSan @daniperegrinos </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.921500027179718</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.96670001745224</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>entrada, poder, luchar, no_sabe, intentar, estacion, dedicar, siquiera, no_dice, lideres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@alfonsoaya @ricardopuentesm /.: Respetado Journalist cuando quede time is money and gasoline expansive Miss Mary Padian..por la revista Semana sección Nación 585 del 160893 Llegaron los venezolanos ya nos relatan como habaneros cubanos invierten Diego y Antonio ADN Antonio Cisneros..particular Bank Ingles </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.8269000053405762</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8984000086784363</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>danar, ofrecer, lindo, informar, hurto, harto, indocumentados, mamar, no_vandalos, no_educacion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>! FELIZ CUMPLEAÑOS MI TURBO LINDO! perdónanos por Abuchar,la priti yall y los venecos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.8136000037193298</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.916100025177002</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>atencion, senores, cagar, muestra, salida, error, vayanse, bolivariano, onu, aprovechado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>@yvonijosefinapa Comienza la cacería! la lista es larga arrastra al verdugo de los Venezolanos,los veremops en pijama de rayas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.8104000091552734</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9510999917984009</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>agua, anos, animal, guerrilla, objetivo, cero, minga, baja, universidad, mesero</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">¿A QUÉ EDAD GOZASTE TU PRIMER ORGAS__MO? LOS VENECOS LO EXPERIMENTAN CUANDO ALMUERZAN JAJAJAAJAJAJA ATT DRA LABIOS, LA AZAFATA CON EL CHIQUITO MÁS LIMPIO DE LOCOMBIA — Racism still exist in 2019? 😳 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.8116999864578247</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8871999979019165</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>palo, modelo, modo, abandonado, competencia, vivar, exactamente, mision, salario_minimo, daria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leonardo José González "LEO GONZÁLEZ" (n. 25 de Febrero de 1981 en la Parroquia Candelaria de Caracas, Venezuela) Llega a sus 38 febreros este cantante venezolano -no confundir con el otro cantante llamado Leopoldo Alberto.. </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.707099974155426</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.8230000138282776</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.7095999717712402</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="B10" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.9297000169754028</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+      <c r="C10" t="n">
+        <v>0.9269000291824341</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ejercito, tragedia, danos, juan, reportar, promedio, fumar, calenos, adivinar, guarimberos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Las ciclorutas de claudio son ocupadas,usadas y monopolizadas por los "bici"taxistas (a motor y gasolina) a más de 30km/h, fumando marihuana, cargando reciclaje y venecos.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>